--- a/pred_ohlcv/54_21/2020-01-12 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FZZ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2802807.6722</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2799369.8406</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2646241.4327</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2113150.9579</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>121193.5236</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>698668.2918</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>695565.4486</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>627498.3672</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>627606.3672</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>592159.1176999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>605344.6655999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>609526.147</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>586173.4888000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>577062.7935</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>578244.7935</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>578234.4888000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>578474.2778</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>578350.4878</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>570019.6761</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>531776.4286</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>563483.6472836517</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>563629.6124836517</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>561629.6124836517</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>562274.0316836517</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>562324.4508836517</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>562213.4508836517</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>562319.4508836517</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>562430.4508836517</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>338358.0238836517</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>163358.0238836517</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>83021.02388365171</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>83382.02388365171</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>83264.02388365171</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>85976.45078365172</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>85976.45078365172</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>150492.5797836517</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>143924.3562836517</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-258510.8850163483</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FZZ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2802807.6722</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2799369.8406</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3338371.0522</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3338870.0522</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2646241.4327</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>121193.5236</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>698668.2918</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>695565.4486</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>627498.3672</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>627606.3672</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>592159.1176999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>605344.6655999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>609526.147</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>586173.4888000001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>577062.7935</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>578244.7935</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>578234.4888000001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>578474.2778</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>578350.4878</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>570019.6761</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>531776.4286</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>563483.6472836517</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>563629.6124836517</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>561629.6124836517</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>562274.0316836517</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>562324.4508836517</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>562213.4508836517</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>562319.4508836517</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>562430.4508836517</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>338358.0238836517</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>163358.0238836517</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>83021.02388365171</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>83259.02388365171</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>83264.02388365171</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>85976.45078365172</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>85976.45078365172</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>150492.5797836517</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>143924.3562836517</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-258510.8850163483</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
